--- a/Traduzido/PTBR/Lang/PTBR/Game/Note.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Note.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA103C4-8EDC-4536-B1C0-B601416F6846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94216CD8-A82C-4956-8158-D9EB1DA96C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>sister</t>
   </si>
   <si>
-    <t>↓Younger sister  ↑Other woman</t>
-  </si>
-  <si>
     <t>↓妹　↑他の女</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>Da meia-noite até o amanhecer, ele vigia.</t>
   </si>
   <si>
-    <t>↓Irmã mais nova  ↑Outra mulher</t>
-  </si>
-  <si>
     <t>Em honra aos sacrifícios de Odina, a Deusa da Compaixão</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
   </si>
   <si>
     <t>A meditação nas águas termais vai aquecer você de dentro para fora!</t>
+  </si>
+  <si>
+    <t>↓ Irmã mais nova ↓ |↑ Outra mulher ↑</t>
+  </si>
+  <si>
+    <t>↓Younger sister↑Other woman</t>
   </si>
 </sst>
 </file>
@@ -575,14 +575,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C13"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="65.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="57.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -607,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -624,10 +625,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -641,10 +642,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -658,10 +659,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -675,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -692,101 +693,101 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Note.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Note.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94216CD8-A82C-4956-8158-D9EB1DA96C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A638A9-3902-4692-81D7-7BDBB5B63D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -160,40 +160,40 @@
     <t>EA 23.27 fix 2</t>
   </si>
   <si>
-    <t>Quartos dos Oficiais Reais de Palmian</t>
-  </si>
-  <si>
-    <t>Pague seu imposto aqui</t>
-  </si>
-  <si>
     <t>Comissão de Segurança Pública de Palmia</t>
   </si>
   <si>
     <t>Uau</t>
   </si>
   <si>
-    <t>Da meia-noite até o amanhecer, ele vigia.</t>
-  </si>
-  <si>
-    <t>Em honra aos sacrifícios de Odina, a Deusa da Compaixão</t>
-  </si>
-  <si>
-    <t>O parque está temporariamente fechado devido à revolta dos caracóis.</t>
-  </si>
-  <si>
-    <t>Pioneiros Procurados</t>
-  </si>
-  <si>
     <t>Coloque-os aqui.</t>
   </si>
   <si>
-    <t>A meditação nas águas termais vai aquecer você de dentro para fora!</t>
-  </si>
-  <si>
     <t>↓ Irmã mais nova ↓ |↑ Outra mulher ↑</t>
   </si>
   <si>
     <t>↓Younger sister↑Other woman</t>
+  </si>
+  <si>
+    <t>Pague seus impostos aqui</t>
+  </si>
+  <si>
+    <t>Alojamento Real dos Oficiais de Palmia</t>
+  </si>
+  <si>
+    <t>Da meia-noite até o entardecer, ele está de vigia.</t>
+  </si>
+  <si>
+    <t>Em homenagem aos sacrifícios de Odina, a Deusa da Compaixão</t>
+  </si>
+  <si>
+    <t>O parque está temporariamente fechado devido à rebelião dos caracóis.</t>
+  </si>
+  <si>
+    <t>Procuram-se Pioneiros</t>
+  </si>
+  <si>
+    <t>Meditar nas águas termais vai te aquecer por dentro e por fora!</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="65.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="57.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -628,7 +628,7 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -645,7 +645,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -662,7 +662,7 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -679,7 +679,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -696,10 +696,10 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -713,7 +713,7 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -730,7 +730,7 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -747,7 +747,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -764,7 +764,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -781,7 +781,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Note.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Note.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A638A9-3902-4692-81D7-7BDBB5B63D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94216CD8-A82C-4956-8158-D9EB1DA96C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -160,40 +160,40 @@
     <t>EA 23.27 fix 2</t>
   </si>
   <si>
+    <t>Quartos dos Oficiais Reais de Palmian</t>
+  </si>
+  <si>
+    <t>Pague seu imposto aqui</t>
+  </si>
+  <si>
     <t>Comissão de Segurança Pública de Palmia</t>
   </si>
   <si>
     <t>Uau</t>
   </si>
   <si>
+    <t>Da meia-noite até o amanhecer, ele vigia.</t>
+  </si>
+  <si>
+    <t>Em honra aos sacrifícios de Odina, a Deusa da Compaixão</t>
+  </si>
+  <si>
+    <t>O parque está temporariamente fechado devido à revolta dos caracóis.</t>
+  </si>
+  <si>
+    <t>Pioneiros Procurados</t>
+  </si>
+  <si>
     <t>Coloque-os aqui.</t>
   </si>
   <si>
+    <t>A meditação nas águas termais vai aquecer você de dentro para fora!</t>
+  </si>
+  <si>
     <t>↓ Irmã mais nova ↓ |↑ Outra mulher ↑</t>
   </si>
   <si>
     <t>↓Younger sister↑Other woman</t>
-  </si>
-  <si>
-    <t>Pague seus impostos aqui</t>
-  </si>
-  <si>
-    <t>Alojamento Real dos Oficiais de Palmia</t>
-  </si>
-  <si>
-    <t>Da meia-noite até o entardecer, ele está de vigia.</t>
-  </si>
-  <si>
-    <t>Em homenagem aos sacrifícios de Odina, a Deusa da Compaixão</t>
-  </si>
-  <si>
-    <t>O parque está temporariamente fechado devido à rebelião dos caracóis.</t>
-  </si>
-  <si>
-    <t>Procuram-se Pioneiros</t>
-  </si>
-  <si>
-    <t>Meditar nas águas termais vai te aquecer por dentro e por fora!</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +583,7 @@
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="65.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="57.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -628,7 +628,7 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -645,7 +645,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -662,7 +662,7 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -679,7 +679,7 @@
         <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -696,10 +696,10 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -713,7 +713,7 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -730,7 +730,7 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -747,7 +747,7 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -764,7 +764,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -781,7 +781,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
